--- a/Monitor-SCFI-Trends.xlsx
+++ b/Monitor-SCFI-Trends.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Applications\Cursor\Shipping Schedule\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Applications\Cursor\Shipping Schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0364BD38-DF92-41DE-82F9-D302FE914743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F7AE92-F122-4E3F-9FBA-128FC082B28D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -532,10 +532,10 @@
   <dimension ref="A1:S809"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B769" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -43232,23 +43232,57 @@
       <c r="S808" s="10"/>
     </row>
     <row r="809" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A809" s="9"/>
-      <c r="B809" s="10"/>
-      <c r="C809" s="10"/>
-      <c r="D809" s="10"/>
-      <c r="E809" s="10"/>
-      <c r="F809" s="10"/>
-      <c r="G809" s="10"/>
-      <c r="H809" s="10"/>
-      <c r="I809" s="10"/>
-      <c r="J809" s="10"/>
-      <c r="K809" s="10"/>
-      <c r="L809" s="10"/>
-      <c r="M809" s="10"/>
-      <c r="N809" s="10"/>
-      <c r="O809" s="10"/>
-      <c r="P809" s="10"/>
-      <c r="Q809" s="10"/>
+      <c r="A809" s="6">
+        <v>45989</v>
+      </c>
+      <c r="B809" s="10">
+        <v>1403</v>
+      </c>
+      <c r="C809" s="10">
+        <v>1314</v>
+      </c>
+      <c r="D809" s="10">
+        <v>321</v>
+      </c>
+      <c r="E809" s="10">
+        <v>2387</v>
+      </c>
+      <c r="F809" s="10">
+        <v>2428</v>
+      </c>
+      <c r="G809" s="10">
+        <v>1404</v>
+      </c>
+      <c r="H809" s="10">
+        <v>143</v>
+      </c>
+      <c r="I809" s="10">
+        <v>2232</v>
+      </c>
+      <c r="J809" s="10">
+        <v>1697</v>
+      </c>
+      <c r="K809" s="10">
+        <v>2296</v>
+      </c>
+      <c r="L809" s="10">
+        <v>1832</v>
+      </c>
+      <c r="M809" s="10">
+        <v>540</v>
+      </c>
+      <c r="N809" s="10">
+        <v>3493</v>
+      </c>
+      <c r="O809" s="10">
+        <v>312</v>
+      </c>
+      <c r="P809" s="10">
+        <v>1632</v>
+      </c>
+      <c r="Q809" s="10">
+        <v>1721</v>
+      </c>
       <c r="R809" s="10"/>
       <c r="S809" s="10"/>
     </row>
